--- a/PythonResources/Data/Consumption/Sympheny/futu_1676_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1676_hea.xlsx
@@ -591,7 +591,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>58.19482307594468</v>
+        <v>58.19482307594467</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -599,7 +599,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>58.43455518556966</v>
+        <v>58.43455518556965</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -607,7 +607,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>56.57472637422476</v>
+        <v>56.57472637422475</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -647,7 +647,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>83.93730389884126</v>
+        <v>83.93730389884125</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -847,7 +847,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>57.43313144646384</v>
+        <v>57.43313144646383</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>67.79817487079964</v>
+        <v>67.79817487079963</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>60.7398519756798</v>
+        <v>60.73985197567979</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>57.28044143532128</v>
+        <v>57.28044143532127</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>73.31934016814073</v>
+        <v>73.31934016814071</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>30.5151426874966</v>
+        <v>30.51514268749659</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>40.90656250531192</v>
+        <v>40.90656250531191</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>45.3776542711294</v>
+        <v>45.37765427112939</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1807,7 +1807,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>65.3806318728822</v>
+        <v>65.38063187288219</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>57.18636563191099</v>
+        <v>57.18636563191098</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>73.8313352726821</v>
+        <v>73.83133527268208</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>52.26130682720708</v>
+        <v>52.26130682720707</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2167,7 +2167,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>89.6650842784386</v>
+        <v>89.66508427843858</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>54.5569322730414</v>
+        <v>54.55693227304139</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>374</v>
       </c>
       <c r="B374">
-        <v>56.88567474624445</v>
+        <v>56.88567474624444</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>399</v>
       </c>
       <c r="B399">
-        <v>67.93855589831843</v>
+        <v>67.93855589831841</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>414</v>
       </c>
       <c r="B414">
-        <v>49.90970481298845</v>
+        <v>49.90970481298844</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>415</v>
       </c>
       <c r="B415">
-        <v>51.52013017043254</v>
+        <v>51.52013017043253</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>421</v>
       </c>
       <c r="B421">
-        <v>85.0075993320325</v>
+        <v>85.00759933203248</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>438</v>
       </c>
       <c r="B438">
-        <v>55.55308073345131</v>
+        <v>55.5530807334513</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>441</v>
       </c>
       <c r="B441">
-        <v>54.73805017493411</v>
+        <v>54.7380501749341</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>479</v>
       </c>
       <c r="B479">
-        <v>42.49647289004972</v>
+        <v>42.49647289004971</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>485</v>
       </c>
       <c r="B485">
-        <v>52.19771041181757</v>
+        <v>52.19771041181756</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>488</v>
       </c>
       <c r="B488">
-        <v>54.52879745332991</v>
+        <v>54.5287974533299</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4423,7 +4423,7 @@
         <v>510</v>
       </c>
       <c r="B510">
-        <v>51.13532789667019</v>
+        <v>51.13532789667018</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4599,7 +4599,7 @@
         <v>532</v>
       </c>
       <c r="B532">
-        <v>39.54876438319391</v>
+        <v>39.5487643831939</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4663,7 +4663,7 @@
         <v>540</v>
       </c>
       <c r="B540">
-        <v>85.73148479752602</v>
+        <v>85.73148479752601</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>567</v>
       </c>
       <c r="B567">
-        <v>53.35416873037524</v>
+        <v>53.35416873037523</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -5055,7 +5055,7 @@
         <v>589</v>
       </c>
       <c r="B589">
-        <v>59.21177958009955</v>
+        <v>59.21177958009954</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5223,7 +5223,7 @@
         <v>610</v>
       </c>
       <c r="B610">
-        <v>73.32461544683663</v>
+        <v>73.32461544683662</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>66.35626536058582</v>
+        <v>66.35626536058581</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5255,7 +5255,7 @@
         <v>614</v>
       </c>
       <c r="B614">
-        <v>41.03903061478685</v>
+        <v>41.03903061478684</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5575,7 +5575,7 @@
         <v>654</v>
       </c>
       <c r="B654">
-        <v>50.51606879197877</v>
+        <v>50.51606879197876</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5599,7 +5599,7 @@
         <v>657</v>
       </c>
       <c r="B657">
-        <v>50.69454905452353</v>
+        <v>50.69454905452352</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>676</v>
       </c>
       <c r="B676">
-        <v>48.6181407456079</v>
+        <v>48.61814074560789</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5791,7 +5791,7 @@
         <v>681</v>
       </c>
       <c r="B681">
-        <v>46.00687779113531</v>
+        <v>46.0068777911353</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>684</v>
       </c>
       <c r="B684">
-        <v>74.90163070587333</v>
+        <v>74.90163070587332</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>686</v>
       </c>
       <c r="B686">
-        <v>58.55442124038215</v>
+        <v>58.55442124038214</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>712</v>
       </c>
       <c r="B712">
-        <v>31.12912651349212</v>
+        <v>31.12912651349211</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>731</v>
       </c>
       <c r="B731">
-        <v>62.70196257951751</v>
+        <v>62.7019625795175</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6375,7 +6375,7 @@
         <v>754</v>
       </c>
       <c r="B754">
-        <v>77.00851840280974</v>
+        <v>77.00851840280973</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>755</v>
       </c>
       <c r="B755">
-        <v>70.95015389160241</v>
+        <v>70.9501538916024</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6591,7 +6591,7 @@
         <v>781</v>
       </c>
       <c r="B781">
-        <v>71.66554029697475</v>
+        <v>71.66554029697474</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6783,7 +6783,7 @@
         <v>805</v>
       </c>
       <c r="B805">
-        <v>19.81157290640308</v>
+        <v>19.81157290640307</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6871,7 +6871,7 @@
         <v>816</v>
       </c>
       <c r="B816">
-        <v>35.84170881516655</v>
+        <v>35.84170881516654</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6927,7 +6927,7 @@
         <v>823</v>
       </c>
       <c r="B823">
-        <v>54.77585633892142</v>
+        <v>54.77585633892141</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>841</v>
       </c>
       <c r="B841">
-        <v>29.48089499206071</v>
+        <v>29.4808949920607</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7159,7 +7159,7 @@
         <v>852</v>
       </c>
       <c r="B852">
-        <v>62.3297623604176</v>
+        <v>62.32976236041759</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7575,7 +7575,7 @@
         <v>904</v>
       </c>
       <c r="B904">
-        <v>54.22077979169684</v>
+        <v>54.22077979169683</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -7735,7 +7735,7 @@
         <v>924</v>
       </c>
       <c r="B924">
-        <v>74.21613754644444</v>
+        <v>74.21613754644443</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7767,7 +7767,7 @@
         <v>928</v>
       </c>
       <c r="B928">
-        <v>56.56974416656752</v>
+        <v>56.56974416656751</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7943,7 +7943,7 @@
         <v>950</v>
       </c>
       <c r="B950">
-        <v>60.54378745081536</v>
+        <v>60.54378745081535</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -8111,7 +8111,7 @@
         <v>971</v>
       </c>
       <c r="B971">
-        <v>37.40084674084491</v>
+        <v>37.4008467408449</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8159,7 +8159,7 @@
         <v>977</v>
       </c>
       <c r="B977">
-        <v>29.56354102496321</v>
+        <v>29.5635410249632</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -8239,7 +8239,7 @@
         <v>987</v>
       </c>
       <c r="B987">
-        <v>56.16178928075093</v>
+        <v>56.16178928075092</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8383,7 +8383,7 @@
         <v>1005</v>
       </c>
       <c r="B1005">
-        <v>46.66423613085271</v>
+        <v>46.6642361308527</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -8391,7 +8391,7 @@
         <v>1006</v>
       </c>
       <c r="B1006">
-        <v>48.64862013362868</v>
+        <v>48.64862013362867</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8463,7 +8463,7 @@
         <v>1015</v>
       </c>
       <c r="B1015">
-        <v>59.80759300169806</v>
+        <v>59.80759300169805</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8495,7 +8495,7 @@
         <v>1019</v>
       </c>
       <c r="B1019">
-        <v>95.91687567516242</v>
+        <v>95.9168756751624</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8655,7 +8655,7 @@
         <v>1039</v>
       </c>
       <c r="B1039">
-        <v>35.65824634496455</v>
+        <v>35.65824634496454</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -8695,7 +8695,7 @@
         <v>1044</v>
       </c>
       <c r="B1044">
-        <v>66.42513705467124</v>
+        <v>66.42513705467123</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8719,7 +8719,7 @@
         <v>1047</v>
       </c>
       <c r="B1047">
-        <v>45.50748474125638</v>
+        <v>45.50748474125637</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>1048</v>
       </c>
       <c r="B1048">
-        <v>43.7036324982958</v>
+        <v>43.70363249829579</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -9071,7 +9071,7 @@
         <v>1091</v>
       </c>
       <c r="B1091">
-        <v>69.35467515713005</v>
+        <v>69.35467515713003</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9263,7 +9263,7 @@
         <v>1115</v>
       </c>
       <c r="B1115">
-        <v>77.6403795621636</v>
+        <v>77.64037956216359</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9295,7 +9295,7 @@
         <v>1119</v>
       </c>
       <c r="B1119">
-        <v>56.11108799106251</v>
+        <v>56.1110879910625</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
@@ -10007,7 +10007,7 @@
         <v>1208</v>
       </c>
       <c r="B1208">
-        <v>41.23773277899924</v>
+        <v>41.23773277899923</v>
       </c>
     </row>
     <row r="1209" spans="1:2">
@@ -10031,7 +10031,7 @@
         <v>1211</v>
       </c>
       <c r="B1211">
-        <v>78.67169654721287</v>
+        <v>78.67169654721286</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
@@ -10063,7 +10063,7 @@
         <v>1215</v>
       </c>
       <c r="B1215">
-        <v>43.36249780929399</v>
+        <v>43.36249780929398</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
@@ -10215,7 +10215,7 @@
         <v>1234</v>
       </c>
       <c r="B1234">
-        <v>86.11101179259246</v>
+        <v>86.11101179259245</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
@@ -10223,7 +10223,7 @@
         <v>1235</v>
       </c>
       <c r="B1235">
-        <v>77.18670559431584</v>
+        <v>77.18670559431582</v>
       </c>
     </row>
     <row r="1236" spans="1:2">
@@ -10423,7 +10423,7 @@
         <v>1260</v>
       </c>
       <c r="B1260">
-        <v>74.91364661845844</v>
+        <v>74.91364661845843</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
@@ -10439,7 +10439,7 @@
         <v>1262</v>
       </c>
       <c r="B1262">
-        <v>62.91033608800572</v>
+        <v>62.91033608800571</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
@@ -10447,7 +10447,7 @@
         <v>1263</v>
       </c>
       <c r="B1263">
-        <v>60.2205300951719</v>
+        <v>60.22053009517189</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
@@ -10607,7 +10607,7 @@
         <v>1283</v>
       </c>
       <c r="B1283">
-        <v>81.0203678510449</v>
+        <v>81.02036785104488</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
@@ -11367,7 +11367,7 @@
         <v>1378</v>
       </c>
       <c r="B1378">
-        <v>64.39972310648268</v>
+        <v>64.39972310648267</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
@@ -11591,7 +11591,7 @@
         <v>1406</v>
       </c>
       <c r="B1406">
-        <v>33.15922959829926</v>
+        <v>33.15922959829925</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
@@ -11607,7 +11607,7 @@
         <v>1408</v>
       </c>
       <c r="B1408">
-        <v>26.59276782736475</v>
+        <v>26.59276782736474</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
@@ -11983,7 +11983,7 @@
         <v>1455</v>
       </c>
       <c r="B1455">
-        <v>61.74625792244286</v>
+        <v>61.74625792244285</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
@@ -12287,7 +12287,7 @@
         <v>1493</v>
       </c>
       <c r="B1493">
-        <v>50.24116815771443</v>
+        <v>50.24116815771442</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
@@ -12303,7 +12303,7 @@
         <v>1495</v>
       </c>
       <c r="B1495">
-        <v>51.32875478218668</v>
+        <v>51.32875478218667</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
@@ -12727,7 +12727,7 @@
         <v>1548</v>
       </c>
       <c r="B1548">
-        <v>64.67989901944293</v>
+        <v>64.67989901944291</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
@@ -12743,7 +12743,7 @@
         <v>1550</v>
       </c>
       <c r="B1550">
-        <v>52.26921974525094</v>
+        <v>52.26921974525093</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -12951,7 +12951,7 @@
         <v>1576</v>
       </c>
       <c r="B1576">
-        <v>44.79942511185057</v>
+        <v>44.79942511185056</v>
       </c>
     </row>
     <row r="1577" spans="1:2">
@@ -13111,7 +13111,7 @@
         <v>1596</v>
       </c>
       <c r="B1596">
-        <v>58.65113468314039</v>
+        <v>58.65113468314038</v>
       </c>
     </row>
     <row r="1597" spans="1:2">
@@ -13287,7 +13287,7 @@
         <v>1618</v>
       </c>
       <c r="B1618">
-        <v>71.04159205566475</v>
+        <v>71.04159205566474</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
@@ -13311,7 +13311,7 @@
         <v>1621</v>
       </c>
       <c r="B1621">
-        <v>47.62697449285523</v>
+        <v>47.62697449285522</v>
       </c>
     </row>
     <row r="1622" spans="1:2">
@@ -13471,7 +13471,7 @@
         <v>1641</v>
       </c>
       <c r="B1641">
-        <v>6.4363968439766</v>
+        <v>6.436396843976599</v>
       </c>
     </row>
     <row r="1642" spans="1:2">
@@ -13871,7 +13871,7 @@
         <v>1691</v>
       </c>
       <c r="B1691">
-        <v>49.96626752345009</v>
+        <v>49.96626752345008</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -13887,7 +13887,7 @@
         <v>1693</v>
       </c>
       <c r="B1693">
-        <v>39.39050602231678</v>
+        <v>39.39050602231677</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -14055,7 +14055,7 @@
         <v>1714</v>
       </c>
       <c r="B1714">
-        <v>54.78875146462252</v>
+        <v>54.78875146462251</v>
       </c>
     </row>
     <row r="1715" spans="1:2">
@@ -14455,7 +14455,7 @@
         <v>1764</v>
       </c>
       <c r="B1764">
-        <v>33.89806168676451</v>
+        <v>33.8980616867645</v>
       </c>
     </row>
     <row r="1765" spans="1:2">
@@ -14639,7 +14639,7 @@
         <v>1787</v>
       </c>
       <c r="B1787">
-        <v>44.50137186553198</v>
+        <v>44.50137186553197</v>
       </c>
     </row>
     <row r="1788" spans="1:2">
@@ -15391,7 +15391,7 @@
         <v>1881</v>
       </c>
       <c r="B1881">
-        <v>57.16086845154745</v>
+        <v>57.16086845154744</v>
       </c>
     </row>
     <row r="1882" spans="1:2">
@@ -15967,7 +15967,7 @@
         <v>1953</v>
       </c>
       <c r="B1953">
-        <v>72.69011664813482</v>
+        <v>72.6901166481348</v>
       </c>
     </row>
     <row r="1954" spans="1:2">
@@ -16159,7 +16159,7 @@
         <v>1977</v>
       </c>
       <c r="B1977">
-        <v>5.037803233276928</v>
+        <v>5.037803233276927</v>
       </c>
     </row>
     <row r="1978" spans="1:2">
@@ -17135,7 +17135,7 @@
         <v>2099</v>
       </c>
       <c r="B2099">
-        <v>51.00022214784731</v>
+        <v>51.0002221478473</v>
       </c>
     </row>
     <row r="2100" spans="1:2">
@@ -17159,7 +17159,7 @@
         <v>2102</v>
       </c>
       <c r="B2102">
-        <v>36.43019546079853</v>
+        <v>36.43019546079852</v>
       </c>
     </row>
     <row r="2103" spans="1:2">
@@ -17311,7 +17311,7 @@
         <v>2121</v>
       </c>
       <c r="B2121">
-        <v>64.97326312914294</v>
+        <v>64.97326312914292</v>
       </c>
     </row>
     <row r="2122" spans="1:2">
@@ -18271,7 +18271,7 @@
         <v>2241</v>
       </c>
       <c r="B2241">
-        <v>62.29664533304887</v>
+        <v>62.29664533304886</v>
       </c>
     </row>
     <row r="2242" spans="1:2">
@@ -19623,7 +19623,7 @@
         <v>2410</v>
       </c>
       <c r="B2410">
-        <v>35.90530523055606</v>
+        <v>35.90530523055605</v>
       </c>
     </row>
     <row r="2411" spans="1:2">
@@ -19663,7 +19663,7 @@
         <v>2415</v>
       </c>
       <c r="B2415">
-        <v>7.310363988368597</v>
+        <v>7.310363988368596</v>
       </c>
     </row>
     <row r="2416" spans="1:2">
@@ -19807,7 +19807,7 @@
         <v>2433</v>
       </c>
       <c r="B2433">
-        <v>41.23773277899924</v>
+        <v>41.23773277899923</v>
       </c>
     </row>
     <row r="2434" spans="1:2">
@@ -19815,7 +19815,7 @@
         <v>2434</v>
       </c>
       <c r="B2434">
-        <v>34.80247891207342</v>
+        <v>34.80247891207341</v>
       </c>
     </row>
     <row r="2435" spans="1:2">
@@ -19855,7 +19855,7 @@
         <v>2439</v>
       </c>
       <c r="B2439">
-        <v>3.963609955271497</v>
+        <v>3.963609955271498</v>
       </c>
     </row>
     <row r="2440" spans="1:2">
@@ -20591,7 +20591,7 @@
         <v>2531</v>
       </c>
       <c r="B2531">
-        <v>2.009157297674013</v>
+        <v>2.009157297674012</v>
       </c>
     </row>
     <row r="2532" spans="1:2">
@@ -21935,7 +21935,7 @@
         <v>2699</v>
       </c>
       <c r="B2699">
-        <v>15.4248562926162</v>
+        <v>15.42485629261619</v>
       </c>
     </row>
     <row r="2700" spans="1:2">
@@ -22303,7 +22303,7 @@
         <v>2745</v>
       </c>
       <c r="B2745">
-        <v>6.439737853817339</v>
+        <v>6.439737853817338</v>
       </c>
     </row>
     <row r="2746" spans="1:2">
@@ -23295,7 +23295,7 @@
         <v>2869</v>
       </c>
       <c r="B2869">
-        <v>7.625444662033409</v>
+        <v>7.625444662033408</v>
       </c>
     </row>
     <row r="2870" spans="1:2">
@@ -23311,7 +23311,7 @@
         <v>2871</v>
       </c>
       <c r="B2871">
-        <v>0.8265922109923913</v>
+        <v>0.8265922109923912</v>
       </c>
     </row>
     <row r="2872" spans="1:2">
@@ -23647,7 +23647,7 @@
         <v>2913</v>
       </c>
       <c r="B2913">
-        <v>32.96550964174411</v>
+        <v>32.9655096417441</v>
       </c>
     </row>
     <row r="2914" spans="1:2">
@@ -23671,7 +23671,7 @@
         <v>2916</v>
       </c>
       <c r="B2916">
-        <v>6.938749911346012</v>
+        <v>6.938749911346011</v>
       </c>
     </row>
     <row r="2917" spans="1:2">
@@ -55567,7 +55567,7 @@
         <v>6903</v>
       </c>
       <c r="B6903">
-        <v>6.71950346732346</v>
+        <v>6.719503467323459</v>
       </c>
     </row>
     <row r="6904" spans="1:2">
@@ -55903,7 +55903,7 @@
         <v>6945</v>
       </c>
       <c r="B6945">
-        <v>42.25674078042474</v>
+        <v>42.25674078042473</v>
       </c>
     </row>
     <row r="6946" spans="1:2">
@@ -55943,7 +55943,7 @@
         <v>6950</v>
       </c>
       <c r="B6950">
-        <v>4.511711411775947</v>
+        <v>4.511711411775946</v>
       </c>
     </row>
     <row r="6951" spans="1:2">
@@ -58399,7 +58399,7 @@
         <v>7257</v>
       </c>
       <c r="B7257">
-        <v>48.78138131414227</v>
+        <v>48.78138131414226</v>
       </c>
     </row>
     <row r="7258" spans="1:2">
@@ -58783,7 +58783,7 @@
         <v>7305</v>
       </c>
       <c r="B7305">
-        <v>40.1220113348155</v>
+        <v>40.12201133481549</v>
       </c>
     </row>
     <row r="7306" spans="1:2">
@@ -58815,7 +58815,7 @@
         <v>7309</v>
       </c>
       <c r="B7309">
-        <v>23.15800456135765</v>
+        <v>23.15800456135764</v>
       </c>
     </row>
     <row r="7310" spans="1:2">
@@ -59023,7 +59023,7 @@
         <v>7335</v>
       </c>
       <c r="B7335">
-        <v>21.74971029927829</v>
+        <v>21.74971029927828</v>
       </c>
     </row>
     <row r="7336" spans="1:2">
@@ -59975,7 +59975,7 @@
         <v>7454</v>
       </c>
       <c r="B7454">
-        <v>0.734945966492602</v>
+        <v>0.7349459664926019</v>
       </c>
     </row>
     <row r="7455" spans="1:2">
@@ -60375,7 +60375,7 @@
         <v>7504</v>
       </c>
       <c r="B7504">
-        <v>50.22856610305199</v>
+        <v>50.22856610305198</v>
       </c>
     </row>
     <row r="7505" spans="1:2">
@@ -60535,7 +60535,7 @@
         <v>7524</v>
       </c>
       <c r="B7524">
-        <v>6.396246111679996</v>
+        <v>6.396246111679995</v>
       </c>
     </row>
     <row r="7525" spans="1:2">
@@ -61103,7 +61103,7 @@
         <v>7595</v>
       </c>
       <c r="B7595">
-        <v>83.87165598618112</v>
+        <v>83.87165598618111</v>
       </c>
     </row>
     <row r="7596" spans="1:2">
@@ -61295,7 +61295,7 @@
         <v>7619</v>
       </c>
       <c r="B7619">
-        <v>87.8583013250914</v>
+        <v>87.85830132509139</v>
       </c>
     </row>
     <row r="7620" spans="1:2">
@@ -61511,7 +61511,7 @@
         <v>7646</v>
       </c>
       <c r="B7646">
-        <v>41.58414274669695</v>
+        <v>41.58414274669694</v>
       </c>
     </row>
     <row r="7647" spans="1:2">
@@ -61671,7 +61671,7 @@
         <v>7666</v>
       </c>
       <c r="B7666">
-        <v>73.48756294433234</v>
+        <v>73.48756294433232</v>
       </c>
     </row>
     <row r="7667" spans="1:2">
@@ -62279,7 +62279,7 @@
         <v>7742</v>
       </c>
       <c r="B7742">
-        <v>31.56990535563878</v>
+        <v>31.56990535563877</v>
       </c>
     </row>
     <row r="7743" spans="1:2">
@@ -62471,7 +62471,7 @@
         <v>7766</v>
       </c>
       <c r="B7766">
-        <v>19.3294417407013</v>
+        <v>19.32944174070129</v>
       </c>
     </row>
     <row r="7767" spans="1:2">
@@ -63607,7 +63607,7 @@
         <v>7908</v>
       </c>
       <c r="B7908">
-        <v>38.85066916910258</v>
+        <v>38.85066916910257</v>
       </c>
     </row>
     <row r="7909" spans="1:2">
@@ -64183,7 +64183,7 @@
         <v>7980</v>
       </c>
       <c r="B7980">
-        <v>5.784079326124177</v>
+        <v>5.784079326124176</v>
       </c>
     </row>
     <row r="7981" spans="1:2">
@@ -64943,7 +64943,7 @@
         <v>8075</v>
       </c>
       <c r="B8075">
-        <v>72.29271231971003</v>
+        <v>72.29271231971002</v>
       </c>
     </row>
     <row r="8076" spans="1:2">
@@ -65175,7 +65175,7 @@
         <v>8104</v>
       </c>
       <c r="B8104">
-        <v>28.73810644457353</v>
+        <v>28.73810644457352</v>
       </c>
     </row>
     <row r="8105" spans="1:2">
@@ -65319,7 +65319,7 @@
         <v>8122</v>
       </c>
       <c r="B8122">
-        <v>70.85812958546275</v>
+        <v>70.85812958546273</v>
       </c>
     </row>
     <row r="8123" spans="1:2">
@@ -65359,7 +65359,7 @@
         <v>8127</v>
       </c>
       <c r="B8127">
-        <v>33.77057578494682</v>
+        <v>33.77057578494681</v>
       </c>
     </row>
     <row r="8128" spans="1:2">
@@ -65527,7 +65527,7 @@
         <v>8148</v>
       </c>
       <c r="B8148">
-        <v>67.03648324131881</v>
+        <v>67.03648324131879</v>
       </c>
     </row>
     <row r="8149" spans="1:2">
@@ -65535,7 +65535,7 @@
         <v>8149</v>
       </c>
       <c r="B8149">
-        <v>60.61500371321007</v>
+        <v>60.61500371321006</v>
       </c>
     </row>
     <row r="8150" spans="1:2">
@@ -65543,7 +65543,7 @@
         <v>8150</v>
       </c>
       <c r="B8150">
-        <v>57.2317916429035</v>
+        <v>57.23179164290349</v>
       </c>
     </row>
     <row r="8151" spans="1:2">
@@ -65711,7 +65711,7 @@
         <v>8171</v>
       </c>
       <c r="B8171">
-        <v>87.7264193576938</v>
+        <v>87.72641935769379</v>
       </c>
     </row>
     <row r="8172" spans="1:2">
@@ -65751,7 +65751,7 @@
         <v>8176</v>
       </c>
       <c r="B8176">
-        <v>69.72687537622996</v>
+        <v>69.72687537622994</v>
       </c>
     </row>
     <row r="8177" spans="1:2">
@@ -66015,7 +66015,7 @@
         <v>8209</v>
       </c>
       <c r="B8209">
-        <v>37.37798719982932</v>
+        <v>37.37798719982931</v>
       </c>
     </row>
     <row r="8210" spans="1:2">
@@ -66031,7 +66031,7 @@
         <v>8211</v>
       </c>
       <c r="B8211">
-        <v>42.16237190597578</v>
+        <v>42.16237190597577</v>
       </c>
     </row>
     <row r="8212" spans="1:2">
@@ -66183,7 +66183,7 @@
         <v>8230</v>
       </c>
       <c r="B8230">
-        <v>33.76295593794163</v>
+        <v>33.76295593794162</v>
       </c>
     </row>
     <row r="8231" spans="1:2">
@@ -66199,7 +66199,7 @@
         <v>8232</v>
       </c>
       <c r="B8232">
-        <v>37.2250041176481</v>
+        <v>37.22500411764809</v>
       </c>
     </row>
     <row r="8233" spans="1:2">
@@ -66223,7 +66223,7 @@
         <v>8235</v>
       </c>
       <c r="B8235">
-        <v>42.20310878034971</v>
+        <v>42.2031087803497</v>
       </c>
     </row>
     <row r="8236" spans="1:2">
@@ -66255,7 +66255,7 @@
         <v>8239</v>
       </c>
       <c r="B8239">
-        <v>45.69886012950224</v>
+        <v>45.69886012950223</v>
       </c>
     </row>
     <row r="8240" spans="1:2">
@@ -66295,7 +66295,7 @@
         <v>8244</v>
       </c>
       <c r="B8244">
-        <v>76.43761601949744</v>
+        <v>76.43761601949743</v>
       </c>
     </row>
     <row r="8245" spans="1:2">
@@ -66471,7 +66471,7 @@
         <v>8266</v>
       </c>
       <c r="B8266">
-        <v>87.65491002426043</v>
+        <v>87.65491002426042</v>
       </c>
     </row>
     <row r="8267" spans="1:2">
@@ -66519,7 +66519,7 @@
         <v>8272</v>
       </c>
       <c r="B8272">
-        <v>52.33252308960179</v>
+        <v>52.33252308960178</v>
       </c>
     </row>
     <row r="8273" spans="1:2">
@@ -66687,7 +66687,7 @@
         <v>8293</v>
       </c>
       <c r="B8293">
-        <v>74.31285098920269</v>
+        <v>74.31285098920267</v>
       </c>
     </row>
     <row r="8294" spans="1:2">
@@ -66719,7 +66719,7 @@
         <v>8297</v>
       </c>
       <c r="B8297">
-        <v>9.514639191452174</v>
+        <v>9.514639191452172</v>
       </c>
     </row>
     <row r="8298" spans="1:2">
@@ -66855,7 +66855,7 @@
         <v>8314</v>
       </c>
       <c r="B8314">
-        <v>94.80877407798388</v>
+        <v>94.80877407798386</v>
       </c>
     </row>
     <row r="8315" spans="1:2">
@@ -67079,7 +67079,7 @@
         <v>8342</v>
       </c>
       <c r="B8342">
-        <v>63.96011654849066</v>
+        <v>63.96011654849065</v>
       </c>
     </row>
     <row r="8343" spans="1:2">
@@ -67263,7 +67263,7 @@
         <v>8365</v>
       </c>
       <c r="B8365">
-        <v>5.783112191696595</v>
+        <v>5.783112191696594</v>
       </c>
     </row>
     <row r="8366" spans="1:2">
@@ -67623,7 +67623,7 @@
         <v>8410</v>
       </c>
       <c r="B8410">
-        <v>78.9293059901962</v>
+        <v>78.92930599019618</v>
       </c>
     </row>
     <row r="8411" spans="1:2">
@@ -67631,7 +67631,7 @@
         <v>8411</v>
       </c>
       <c r="B8411">
-        <v>69.80102234901128</v>
+        <v>69.80102234901126</v>
       </c>
     </row>
     <row r="8412" spans="1:2">
@@ -67639,7 +67639,7 @@
         <v>8412</v>
       </c>
       <c r="B8412">
-        <v>61.21667855558181</v>
+        <v>61.2166785555818</v>
       </c>
     </row>
     <row r="8413" spans="1:2">
@@ -67663,7 +67663,7 @@
         <v>8415</v>
       </c>
       <c r="B8415">
-        <v>50.42228605960714</v>
+        <v>50.42228605960713</v>
       </c>
     </row>
     <row r="8416" spans="1:2">
@@ -67839,7 +67839,7 @@
         <v>8437</v>
       </c>
       <c r="B8437">
-        <v>51.71355705594903</v>
+        <v>51.71355705594902</v>
       </c>
     </row>
     <row r="8438" spans="1:2">
@@ -68015,7 +68015,7 @@
         <v>8459</v>
       </c>
       <c r="B8459">
-        <v>62.7095824265227</v>
+        <v>62.70958242652269</v>
       </c>
     </row>
     <row r="8460" spans="1:2">
@@ -68039,7 +68039,7 @@
         <v>8462</v>
       </c>
       <c r="B8462">
-        <v>48.7887080901088</v>
+        <v>48.78870809010879</v>
       </c>
     </row>
     <row r="8463" spans="1:2">
@@ -68207,7 +68207,7 @@
         <v>8483</v>
       </c>
       <c r="B8483">
-        <v>74.85268784241688</v>
+        <v>74.85268784241687</v>
       </c>
     </row>
     <row r="8484" spans="1:2">
@@ -68223,7 +68223,7 @@
         <v>8485</v>
       </c>
       <c r="B8485">
-        <v>59.99867531890526</v>
+        <v>59.99867531890525</v>
       </c>
     </row>
     <row r="8486" spans="1:2">
@@ -68415,7 +68415,7 @@
         <v>8509</v>
       </c>
       <c r="B8509">
-        <v>76.0322987730288</v>
+        <v>76.03229877302878</v>
       </c>
     </row>
     <row r="8510" spans="1:2">
@@ -68439,7 +68439,7 @@
         <v>8512</v>
       </c>
       <c r="B8512">
-        <v>61.40483016240239</v>
+        <v>61.40483016240238</v>
       </c>
     </row>
     <row r="8513" spans="1:2">
@@ -68711,7 +68711,7 @@
         <v>8546</v>
       </c>
       <c r="B8546">
-        <v>44.72820884945586</v>
+        <v>44.72820884945585</v>
       </c>
     </row>
     <row r="8547" spans="1:2">
@@ -68727,7 +68727,7 @@
         <v>8548</v>
       </c>
       <c r="B8548">
-        <v>50.01960645248645</v>
+        <v>50.01960645248644</v>
       </c>
     </row>
     <row r="8549" spans="1:2">
@@ -68839,7 +68839,7 @@
         <v>8562</v>
       </c>
       <c r="B8562">
-        <v>30.60042635974705</v>
+        <v>30.60042635974704</v>
       </c>
     </row>
     <row r="8563" spans="1:2">
@@ -68847,7 +68847,7 @@
         <v>8563</v>
       </c>
       <c r="B8563">
-        <v>33.90802610207899</v>
+        <v>33.90802610207898</v>
       </c>
     </row>
     <row r="8564" spans="1:2">
@@ -68855,7 +68855,7 @@
         <v>8564</v>
       </c>
       <c r="B8564">
-        <v>35.43668463973657</v>
+        <v>35.43668463973656</v>
       </c>
     </row>
     <row r="8565" spans="1:2">
@@ -68895,7 +68895,7 @@
         <v>8569</v>
       </c>
       <c r="B8569">
-        <v>46.20587302638637</v>
+        <v>46.20587302638636</v>
       </c>
     </row>
     <row r="8570" spans="1:2">
@@ -68903,7 +68903,7 @@
         <v>8570</v>
       </c>
       <c r="B8570">
-        <v>47.97397060263026</v>
+        <v>47.97397060263025</v>
       </c>
     </row>
     <row r="8571" spans="1:2">
@@ -68919,7 +68919,7 @@
         <v>8572</v>
       </c>
       <c r="B8572">
-        <v>52.87265301385465</v>
+        <v>52.87265301385464</v>
       </c>
     </row>
     <row r="8573" spans="1:2">
@@ -68943,7 +68943,7 @@
         <v>8575</v>
       </c>
       <c r="B8575">
-        <v>56.51611216649249</v>
+        <v>56.51611216649248</v>
       </c>
     </row>
     <row r="8576" spans="1:2">
@@ -68999,7 +68999,7 @@
         <v>8582</v>
       </c>
       <c r="B8582">
-        <v>79.65993208957893</v>
+        <v>79.65993208957892</v>
       </c>
     </row>
     <row r="8583" spans="1:2">
@@ -69103,7 +69103,7 @@
         <v>8595</v>
       </c>
       <c r="B8595">
-        <v>44.19276806182158</v>
+        <v>44.19276806182157</v>
       </c>
     </row>
     <row r="8596" spans="1:2">
@@ -69247,7 +69247,7 @@
         <v>8613</v>
       </c>
       <c r="B8613">
-        <v>29.05312850403061</v>
+        <v>29.0531285040306</v>
       </c>
     </row>
     <row r="8614" spans="1:2">
@@ -69319,7 +69319,7 @@
         <v>8622</v>
       </c>
       <c r="B8622">
-        <v>49.33909550071481</v>
+        <v>49.3390955007148</v>
       </c>
     </row>
     <row r="8623" spans="1:2">
@@ -69327,7 +69327,7 @@
         <v>8623</v>
       </c>
       <c r="B8623">
-        <v>50.84518756839546</v>
+        <v>50.84518756839545</v>
       </c>
     </row>
     <row r="8624" spans="1:2">
@@ -69343,7 +69343,7 @@
         <v>8625</v>
       </c>
       <c r="B8625">
-        <v>46.61060413077768</v>
+        <v>46.61060413077767</v>
       </c>
     </row>
     <row r="8626" spans="1:2">
@@ -69391,7 +69391,7 @@
         <v>8631</v>
       </c>
       <c r="B8631">
-        <v>60.94881162624534</v>
+        <v>60.94881162624533</v>
       </c>
     </row>
     <row r="8632" spans="1:2">
@@ -69927,7 +69927,7 @@
         <v>8698</v>
       </c>
       <c r="B8698">
-        <v>4.797426367366892</v>
+        <v>4.797426367366891</v>
       </c>
     </row>
     <row r="8699" spans="1:2">
@@ -70335,7 +70335,7 @@
         <v>8749</v>
       </c>
       <c r="B8749">
-        <v>56.36576672365922</v>
+        <v>56.36576672365921</v>
       </c>
     </row>
     <row r="8750" spans="1:2">
